--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/LOUISIANA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/LOUISIANA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D677"/>
+  <dimension ref="A1:D671"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,20 +413,20 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="16">
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="21">
@@ -667,14 +667,14 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="23">
@@ -687,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="24">
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="28">
@@ -752,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="29">
@@ -765,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="30">
@@ -791,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="32">
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="34">
@@ -843,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="36">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="39">
@@ -960,7 +960,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="45">
@@ -1077,7 +1077,7 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="54">
@@ -1186,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="D61">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="62">
@@ -1225,13 +1225,13 @@
         <v>2</v>
       </c>
       <c r="D64">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C65">
@@ -1244,7 +1244,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C66">
@@ -1290,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="70">
@@ -1373,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="76">
@@ -1431,7 +1431,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C80">
@@ -1514,7 +1514,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C86">
@@ -1534,13 +1534,13 @@
         <v>2</v>
       </c>
       <c r="D87">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1578,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="D90">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="91">
@@ -1597,14 +1597,14 @@
     <row r="92">
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C92">
         <v>2</v>
       </c>
       <c r="D92">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="93">
@@ -1862,7 +1862,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C112">
@@ -1875,14 +1875,14 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="114">
@@ -1895,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="D114">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="115">
@@ -1934,7 +1934,7 @@
         <v>2</v>
       </c>
       <c r="D117">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="118">
@@ -1966,12 +1966,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C120">
@@ -1984,7 +1984,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C121">
@@ -2036,7 +2036,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C125">
@@ -2062,7 +2062,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C127">
@@ -2140,14 +2140,14 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="134">
@@ -2205,7 +2205,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>San Simón de Guerero</t>
+          <t>San Simón De Guerero</t>
         </is>
       </c>
       <c r="C138">
@@ -2270,7 +2270,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C143">
@@ -2283,7 +2283,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C144">
@@ -2322,20 +2322,20 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
       <c r="D147">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C148">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2399,7 +2399,7 @@
         <v>2</v>
       </c>
       <c r="D152">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="153">
@@ -2418,7 +2418,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C154">
@@ -2431,7 +2431,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C155">
@@ -2477,7 +2477,7 @@
         <v>2</v>
       </c>
       <c r="D158">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="159">
@@ -2503,13 +2503,13 @@
         <v>2</v>
       </c>
       <c r="D160">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C161">
@@ -2548,14 +2548,14 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
       <c r="D164">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="165">
@@ -2594,7 +2594,7 @@
         <v>2</v>
       </c>
       <c r="D167">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="168">
@@ -2620,7 +2620,7 @@
         <v>2</v>
       </c>
       <c r="D169">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="170">
@@ -2633,7 +2633,7 @@
         <v>2</v>
       </c>
       <c r="D170">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="171">
@@ -2665,7 +2665,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C173">
@@ -2704,20 +2704,20 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C176">
         <v>20</v>
       </c>
       <c r="D176">
-        <v>0.009708737864077669</v>
+        <v>0.009708737864077667</v>
       </c>
     </row>
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C177">
@@ -2756,7 +2756,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C180">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C186">
@@ -2870,7 +2870,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C188">
@@ -2883,7 +2883,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C189">
@@ -2922,7 +2922,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C192">
@@ -2935,7 +2935,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C193">
@@ -2955,13 +2955,13 @@
         <v>2</v>
       </c>
       <c r="D194">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C195">
@@ -2974,7 +2974,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C196">
@@ -2987,7 +2987,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C197">
@@ -3026,7 +3026,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C200">
@@ -3039,7 +3039,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C201">
@@ -3065,7 +3065,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C203">
@@ -3078,14 +3078,14 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C204">
         <v>2</v>
       </c>
       <c r="D204">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="205">
@@ -3143,7 +3143,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C209">
@@ -3156,7 +3156,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C210">
@@ -3176,7 +3176,7 @@
         <v>2</v>
       </c>
       <c r="D211">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="212">
@@ -3189,7 +3189,7 @@
         <v>2</v>
       </c>
       <c r="D212">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="213">
@@ -3215,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="D214">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="215">
@@ -3247,7 +3247,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C217">
@@ -3260,14 +3260,14 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
       <c r="D218">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="219">
@@ -3286,7 +3286,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C220">
@@ -3299,7 +3299,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C221">
@@ -3325,7 +3325,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C223">
@@ -3395,7 +3395,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C228">
@@ -3441,7 +3441,7 @@
         <v>2</v>
       </c>
       <c r="D231">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="232">
@@ -3486,7 +3486,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C235">
@@ -3525,7 +3525,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C238">
@@ -3538,14 +3538,14 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C239">
         <v>2</v>
       </c>
       <c r="D239">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="240">
@@ -3623,13 +3623,13 @@
         <v>2</v>
       </c>
       <c r="D245">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C246">
@@ -3642,7 +3642,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C247">
@@ -3655,7 +3655,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C248">
@@ -3668,14 +3668,14 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C249">
         <v>2</v>
       </c>
       <c r="D249">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="250">
@@ -3688,7 +3688,7 @@
         <v>2</v>
       </c>
       <c r="D250">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="251">
@@ -3733,7 +3733,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C254">
@@ -3746,7 +3746,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C255">
@@ -3823,7 +3823,7 @@
         <v>2</v>
       </c>
       <c r="D260">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="261">
@@ -3842,7 +3842,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C262">
@@ -3881,7 +3881,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C265">
@@ -3946,14 +3946,14 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C270">
         <v>2</v>
       </c>
       <c r="D270">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="271">
@@ -3979,7 +3979,7 @@
         <v>2</v>
       </c>
       <c r="D272">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="273">
@@ -3992,7 +3992,7 @@
         <v>2</v>
       </c>
       <c r="D273">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="274">
@@ -4011,7 +4011,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C275">
@@ -4024,7 +4024,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C276">
@@ -4037,7 +4037,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C277">
@@ -4057,7 +4057,7 @@
         <v>2</v>
       </c>
       <c r="D278">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="279">
@@ -4089,20 +4089,20 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C281">
         <v>2</v>
       </c>
       <c r="D281">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C282">
@@ -4167,7 +4167,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C287">
@@ -4296,7 +4296,7 @@
         <v>2</v>
       </c>
       <c r="D296">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="297">
@@ -4348,7 +4348,7 @@
         <v>2</v>
       </c>
       <c r="D300">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="301">
@@ -4387,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="D303">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="304">
@@ -4426,7 +4426,7 @@
         <v>2</v>
       </c>
       <c r="D306">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="307">
@@ -4452,7 +4452,7 @@
         <v>2</v>
       </c>
       <c r="D308">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="309">
@@ -4543,7 +4543,7 @@
         <v>2</v>
       </c>
       <c r="D315">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="316">
@@ -4556,7 +4556,7 @@
         <v>2</v>
       </c>
       <c r="D316">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="317">
@@ -4575,7 +4575,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C318">
@@ -4608,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="D320">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="321">
@@ -4647,7 +4647,7 @@
         <v>2</v>
       </c>
       <c r="D323">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="324">
@@ -4730,7 +4730,7 @@
         <v>2</v>
       </c>
       <c r="D329">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="330">
@@ -4814,7 +4814,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C336">
@@ -4827,7 +4827,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C337">
@@ -4847,7 +4847,7 @@
         <v>2</v>
       </c>
       <c r="D338">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="339">
@@ -4878,7 +4878,7 @@
         <v>2</v>
       </c>
       <c r="D340">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="341">
@@ -4936,7 +4936,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C345">
@@ -4956,7 +4956,7 @@
         <v>2</v>
       </c>
       <c r="D346">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="347">
@@ -4969,7 +4969,7 @@
         <v>2</v>
       </c>
       <c r="D347">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="348">
@@ -5013,7 +5013,7 @@
         <v>2</v>
       </c>
       <c r="D350">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="351">
@@ -5026,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="D351">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="352">
@@ -5097,7 +5097,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C357">
@@ -5123,7 +5123,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C359">
@@ -5143,7 +5143,7 @@
         <v>2</v>
       </c>
       <c r="D360">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="361">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C362">
@@ -5193,7 +5193,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C364">
@@ -5206,7 +5206,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C365">
@@ -5219,20 +5219,20 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C366">
         <v>2</v>
       </c>
       <c r="D366">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C367">
@@ -5258,7 +5258,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C369">
@@ -5271,7 +5271,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C370">
@@ -5297,7 +5297,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C372">
@@ -5310,7 +5310,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C373">
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="D377">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="378">
@@ -5395,7 +5395,7 @@
         <v>2</v>
       </c>
       <c r="D379">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="380">
@@ -5434,7 +5434,7 @@
         <v>2</v>
       </c>
       <c r="D382">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="383">
@@ -5473,7 +5473,7 @@
         <v>2</v>
       </c>
       <c r="D385">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="386">
@@ -5499,7 +5499,7 @@
         <v>2</v>
       </c>
       <c r="D387">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="388">
@@ -5577,7 +5577,7 @@
         <v>2</v>
       </c>
       <c r="D393">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="394">
@@ -5603,7 +5603,7 @@
         <v>2</v>
       </c>
       <c r="D395">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="396">
@@ -5616,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="D396">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="397">
@@ -5629,7 +5629,7 @@
         <v>2</v>
       </c>
       <c r="D397">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="398">
@@ -5642,7 +5642,7 @@
         <v>2</v>
       </c>
       <c r="D398">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="399">
@@ -5661,7 +5661,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C400">
@@ -5700,7 +5700,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C403">
@@ -5713,7 +5713,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C404">
@@ -5726,7 +5726,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C405">
@@ -5739,20 +5739,20 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C406">
         <v>2</v>
       </c>
       <c r="D406">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C407">
@@ -5816,7 +5816,7 @@
         <v>2</v>
       </c>
       <c r="D411">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="412">
@@ -5829,7 +5829,7 @@
         <v>2</v>
       </c>
       <c r="D412">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="413">
@@ -5913,7 +5913,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C419">
@@ -5959,20 +5959,20 @@
         <v>2</v>
       </c>
       <c r="D422">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C423">
         <v>2</v>
       </c>
       <c r="D423">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="424">
@@ -6011,7 +6011,7 @@
         <v>2</v>
       </c>
       <c r="D426">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="427">
@@ -6069,7 +6069,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C431">
@@ -6089,7 +6089,7 @@
         <v>2</v>
       </c>
       <c r="D432">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="433">
@@ -6147,7 +6147,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C437">
@@ -6167,13 +6167,13 @@
         <v>2</v>
       </c>
       <c r="D438">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C439">
@@ -6199,7 +6199,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C441">
@@ -6212,7 +6212,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C442">
@@ -6238,14 +6238,14 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C444">
         <v>2</v>
       </c>
       <c r="D444">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="445">
@@ -6271,7 +6271,7 @@
         <v>2</v>
       </c>
       <c r="D446">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="447">
@@ -6297,7 +6297,7 @@
         <v>2</v>
       </c>
       <c r="D448">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="449">
@@ -6336,7 +6336,7 @@
         <v>2</v>
       </c>
       <c r="D451">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="452">
@@ -6362,7 +6362,7 @@
         <v>2</v>
       </c>
       <c r="D453">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="454">
@@ -6386,7 +6386,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C455">
@@ -6412,7 +6412,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C457">
@@ -6445,7 +6445,7 @@
         <v>2</v>
       </c>
       <c r="D459">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="460">
@@ -6477,7 +6477,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C462">
@@ -6490,14 +6490,14 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C463">
         <v>2</v>
       </c>
       <c r="D463">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="464">
@@ -6516,14 +6516,14 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C465">
         <v>2</v>
       </c>
       <c r="D465">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="466">
@@ -6542,7 +6542,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C467">
@@ -6593,7 +6593,7 @@
         <v>2</v>
       </c>
       <c r="D470">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="471">
@@ -6650,7 +6650,7 @@
         <v>2</v>
       </c>
       <c r="D474">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="475">
@@ -6676,7 +6676,7 @@
         <v>2</v>
       </c>
       <c r="D476">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="477">
@@ -6689,7 +6689,7 @@
         <v>2</v>
       </c>
       <c r="D477">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="478">
@@ -6708,7 +6708,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Cerro de San Pedro</t>
+          <t>Cerro De San Pedro</t>
         </is>
       </c>
       <c r="C479">
@@ -6734,7 +6734,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C481">
@@ -6819,7 +6819,7 @@
         <v>2</v>
       </c>
       <c r="D487">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="488">
@@ -6851,7 +6851,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C490">
@@ -6923,7 +6923,7 @@
         <v>2</v>
       </c>
       <c r="D495">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="496">
@@ -6936,7 +6936,7 @@
         <v>2</v>
       </c>
       <c r="D496">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="497">
@@ -7001,7 +7001,7 @@
         <v>2</v>
       </c>
       <c r="D501">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="502">
@@ -7020,14 +7020,14 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C503">
         <v>2</v>
       </c>
       <c r="D503">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="504">
@@ -7046,7 +7046,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C505">
@@ -7059,7 +7059,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C506">
@@ -7072,7 +7072,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C507">
@@ -7085,7 +7085,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C508">
@@ -7098,7 +7098,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C509">
@@ -7201,7 +7201,7 @@
         <v>2</v>
       </c>
       <c r="D516">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="517">
@@ -7297,7 +7297,7 @@
         <v>2</v>
       </c>
       <c r="D523">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="524">
@@ -7445,7 +7445,7 @@
         <v>2</v>
       </c>
       <c r="D534">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="535">
@@ -7471,7 +7471,7 @@
         <v>2</v>
       </c>
       <c r="D536">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="537">
@@ -7484,7 +7484,7 @@
         <v>20</v>
       </c>
       <c r="D537">
-        <v>0.009708737864077669</v>
+        <v>0.009708737864077667</v>
       </c>
     </row>
     <row r="538">
@@ -7593,7 +7593,7 @@
         <v>2</v>
       </c>
       <c r="D545">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="546">
@@ -7606,7 +7606,7 @@
         <v>2</v>
       </c>
       <c r="D546">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="547">
@@ -7710,7 +7710,7 @@
         <v>2</v>
       </c>
       <c r="D554">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="555">
@@ -7749,13 +7749,13 @@
         <v>2</v>
       </c>
       <c r="D557">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C558">
@@ -7897,7 +7897,7 @@
         <v>2</v>
       </c>
       <c r="D568">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="569">
@@ -8006,13 +8006,13 @@
         <v>2</v>
       </c>
       <c r="D576">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C577">
@@ -8045,7 +8045,7 @@
         <v>2</v>
       </c>
       <c r="D579">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="580">
@@ -8058,7 +8058,7 @@
         <v>2</v>
       </c>
       <c r="D580">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="581">
@@ -8097,7 +8097,7 @@
         <v>2</v>
       </c>
       <c r="D583">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="584">
@@ -8129,14 +8129,14 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C586">
         <v>2</v>
       </c>
       <c r="D586">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="587">
@@ -8175,7 +8175,7 @@
         <v>2</v>
       </c>
       <c r="D589">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="590">
@@ -8188,7 +8188,7 @@
         <v>2</v>
       </c>
       <c r="D590">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="591">
@@ -8201,7 +8201,7 @@
         <v>2</v>
       </c>
       <c r="D591">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="592">
@@ -8220,7 +8220,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C593">
@@ -8233,7 +8233,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C594">
@@ -8259,7 +8259,7 @@
     <row r="596">
       <c r="B596" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C596">
@@ -8279,7 +8279,7 @@
         <v>2</v>
       </c>
       <c r="D597">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="598">
@@ -8311,7 +8311,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C600">
@@ -8344,7 +8344,7 @@
         <v>2</v>
       </c>
       <c r="D602">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="603">
@@ -8376,7 +8376,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C605">
@@ -8389,14 +8389,14 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C606">
         <v>2</v>
       </c>
       <c r="D606">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="607">
@@ -8448,7 +8448,7 @@
         <v>2</v>
       </c>
       <c r="D610">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="611">
@@ -8493,14 +8493,14 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C614">
         <v>2</v>
       </c>
       <c r="D614">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="615">
@@ -8532,7 +8532,7 @@
     <row r="617">
       <c r="B617" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C617">
@@ -8571,7 +8571,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C620">
@@ -8604,7 +8604,7 @@
         <v>2</v>
       </c>
       <c r="D622">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="623">
@@ -8662,7 +8662,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C627">
@@ -8799,7 +8799,7 @@
         <v>2</v>
       </c>
       <c r="D637">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="638">
@@ -8812,7 +8812,7 @@
         <v>2</v>
       </c>
       <c r="D638">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="639">
@@ -8838,7 +8838,7 @@
         <v>2</v>
       </c>
       <c r="D640">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="641">
@@ -8916,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="D646">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="647">
@@ -9017,7 +9017,7 @@
         <v>2</v>
       </c>
       <c r="D653">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="654">
@@ -9056,7 +9056,7 @@
         <v>2</v>
       </c>
       <c r="D656">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="657">
@@ -9173,7 +9173,7 @@
         <v>2</v>
       </c>
       <c r="D665">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="666">
@@ -9199,7 +9199,7 @@
         <v>2</v>
       </c>
       <c r="D667">
-        <v>0.0009708737864077669</v>
+        <v>0.0009708737864077668</v>
       </c>
     </row>
     <row r="668">
@@ -9252,41 +9252,6 @@
       </c>
       <c r="D671">
         <v>1</v>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/LOUISIANA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/LOUISIANA_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Asientos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Candelaria</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Hecelchakán</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Benemérito De Las Américas</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Catazajá</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Chilón</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Frontera Hidalgo</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Huitiupán</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Ostuacán</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Pichucalco</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Reforma</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -1016,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Tila</t>
@@ -1029,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1042,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -1055,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -1068,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -1081,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -1094,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -1107,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1138,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Bocoyna</t>
@@ -1151,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Buenaventura</t>
@@ -1164,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1177,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1190,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -1203,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Gran Morelos</t>
@@ -1216,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Guachochi</t>
@@ -1229,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Guadalupe Y Calvo</t>
@@ -1242,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -1255,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -1268,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1281,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Ojinaga</t>
@@ -1294,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Santa Bárbara</t>
@@ -1307,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1338,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -1351,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1364,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -1377,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1390,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1403,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Sacramento</t>
@@ -1416,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -1429,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>San Juan De Sabinas</t>
@@ -1442,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1455,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Sierra Mojada</t>
@@ -1468,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1481,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1512,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Villa De Álvarez</t>
@@ -1525,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1556,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1569,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1582,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1595,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1608,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1621,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1634,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1647,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1660,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1673,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1686,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1699,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1712,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -1725,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1756,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Cuencamé</t>
@@ -1769,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1782,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -1795,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -1808,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1821,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Guanaceví</t>
@@ -1834,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -1847,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -1860,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Nombre De Dios</t>
@@ -1873,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Pánuco De Coronado</t>
@@ -1886,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Poanas</t>
@@ -1899,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Rodeo</t>
@@ -1912,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>San Dimas</t>
@@ -1925,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Súchil</t>
@@ -1938,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Vicente Guerero</t>
@@ -1951,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1982,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -1995,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -2008,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Amecameca</t>
@@ -2021,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -2034,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Coacalco De Berriozábal</t>
@@ -2047,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -2060,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2073,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Huixquilucan</t>
@@ -2086,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -2099,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -2112,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -2125,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Joquicingo</t>
@@ -2138,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -2151,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -2164,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Nicolás Romero</t>
@@ -2177,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Otzoloapan</t>
@@ -2190,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -2203,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>San Simón De Guerero</t>
@@ -2216,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Santo Tomás</t>
@@ -2229,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -2242,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -2255,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -2268,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -2281,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2294,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -2307,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2320,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Villa De Allende</t>
@@ -2333,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Villa Del Carbón</t>
@@ -2346,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -2359,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2390,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Acámbaro</t>
@@ -2403,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -2416,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -2429,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -2442,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2455,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -2468,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Coroneo</t>
@@ -2481,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -2494,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -2507,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -2520,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -2533,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2546,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -2559,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -2572,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>León</t>
@@ -2585,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -2598,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -2611,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Pueblo Nuevo</t>
@@ -2624,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -2637,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2650,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -2663,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>San Diego De La Unión</t>
@@ -2676,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2689,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -2702,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -2715,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -2728,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -2741,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -2754,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2767,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -2780,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -2793,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Xichú</t>
@@ -2806,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2855,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -2868,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -2881,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Alcozauca De Guerero</t>
@@ -2894,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -2907,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -2920,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -2933,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -2946,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -2959,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Buenavista De Cuéllar</t>
@@ -2972,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -2985,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -2998,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -3011,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -3024,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -3037,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -3050,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Cualác</t>
@@ -3063,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Cuetzala Del Progreso</t>
@@ -3076,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -3089,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -3102,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -3115,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>General Canuto A. Neri</t>
@@ -3128,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -3141,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -3154,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -3167,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -3180,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -3193,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -3206,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -3219,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -3232,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -3245,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -3258,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -3271,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -3284,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -3297,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Tixtla De Guerero</t>
@@ -3310,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -3323,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -3336,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -3349,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Zapotitlán Tablas</t>
@@ -3362,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -3375,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3406,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -3419,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -3432,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -3445,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -3458,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -3471,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -3484,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Jacala De Ledezma</t>
@@ -3497,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>La Misión</t>
@@ -3510,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -3523,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -3536,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -3549,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -3562,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>San Bartolo Tutotepec</t>
@@ -3575,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>San Felipe Orizatlán</t>
@@ -3588,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Singuilucan</t>
@@ -3601,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -3614,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -3627,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -3640,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerero</t>
@@ -3653,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Tepeji Del Río De Ocampo</t>
@@ -3666,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Tezontepec De Aldama</t>
@@ -3679,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Tianguistengo</t>
@@ -3692,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Tlahuelilpan</t>
@@ -3705,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -3718,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -3731,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -3744,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -3757,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -3770,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3801,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Ameca</t>
@@ -3814,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -3827,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Atenguillo</t>
@@ -3840,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -3853,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Colotlán</t>
@@ -3866,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -3879,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -3892,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -3905,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Hostotipaquillo</t>
@@ -3918,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -3931,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -3944,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -3957,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Magdalena</t>
@@ -3970,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Mazamitla</t>
@@ -3983,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -3996,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -4009,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -4022,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Talpa De Allende</t>
@@ -4035,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Tamazula De Gordiano</t>
@@ -4048,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Tecalitlán</t>
@@ -4061,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Tecolotlán</t>
@@ -4074,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -4087,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -4100,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -4113,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -4126,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -4139,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -4152,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -4165,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Zapotitlán De Vadillo</t>
@@ -4178,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4209,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -4222,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -4235,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -4248,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -4261,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Cotija</t>
@@ -4274,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -4287,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -4300,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -4313,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Huandacareo</t>
@@ -4326,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -4339,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Indaparapeo</t>
@@ -4352,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -4365,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -4378,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -4391,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -4404,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -4417,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Madero</t>
@@ -4430,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -4443,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -4456,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -4469,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -4482,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -4495,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -4508,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -4521,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -4534,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Senguio</t>
@@ -4547,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Susupuato</t>
@@ -4560,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -4573,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -4586,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Tocumbo</t>
@@ -4599,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Tumbiscatío</t>
@@ -4612,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -4625,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -4638,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -4651,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -4664,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -4677,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -4690,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -4703,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4734,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Ayala</t>
@@ -4747,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -4760,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -4773,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Jantetelco</t>
@@ -4786,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -4799,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Temoac</t>
@@ -4812,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Tetela Del Volcán</t>
@@ -4825,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Tlaltizapán De Zapata</t>
@@ -4838,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Xochitepec</t>
@@ -4851,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4882,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Jala</t>
@@ -4895,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -4908,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -4921,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>San Pedro Lagunillas</t>
@@ -4934,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -4947,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -4960,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -4973,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5004,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Cadereyta Jiménez</t>
@@ -5017,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Cerralvo</t>
@@ -5030,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Doctor Arroyo</t>
@@ -5043,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Galeana</t>
@@ -5056,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>General Bravo</t>
@@ -5069,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -5082,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Linares</t>
@@ -5095,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Montemorelos</t>
@@ -5108,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -5121,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -5134,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>San Pedro Garza García</t>
@@ -5147,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5178,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Candelaria Loxicha</t>
@@ -5191,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Constancia Del Rosario</t>
@@ -5204,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -5217,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -5230,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -5243,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -5256,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Mazatlán Villa De Flores</t>
@@ -5269,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -5282,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Monjas</t>
@@ -5295,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -5308,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Ocotlán De Morelos</t>
@@ -5321,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -5334,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -5347,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>San Felipe Usila</t>
@@ -5360,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>San Francisco Ixhuatán</t>
@@ -5373,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>San Jerónimo Taviche</t>
@@ -5386,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -5399,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>San Juan Cotzocón</t>
@@ -5412,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -5425,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -5438,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>San Juan Quiahije</t>
@@ -5451,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>San Lorenzo</t>
@@ -5464,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>San Lucas Ojitlán</t>
@@ -5477,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>San Miguel Chicahua</t>
@@ -5490,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>San Miguel Panixtlahuaca</t>
@@ -5503,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -5516,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>San Pablo Huixtepec</t>
@@ -5529,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>San Pedro Tapanatepec</t>
@@ -5542,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Santa María Chimalapa</t>
@@ -5555,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -5568,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Santa María Temaxcaltepec</t>
@@ -5581,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Santa María Tlahuitoltepec</t>
@@ -5594,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Santa María Totolapilla</t>
@@ -5607,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Santiago Chazumba</t>
@@ -5620,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -5633,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -5646,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Santiago Yaitepec</t>
@@ -5659,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -5672,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -5685,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -5698,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Teotitlán De Flores Magón</t>
@@ -5711,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Totontepec Villa De Morelos</t>
@@ -5724,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -5737,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -5750,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -5763,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5794,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Acatzingo</t>
@@ -5807,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Aquixtla</t>
@@ -5820,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Atempan</t>
@@ -5833,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -5846,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -5859,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -5872,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -5885,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -5898,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Coxcatlán</t>
@@ -5911,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Cuetzalan Del Progreso</t>
@@ -5924,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -5937,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -5950,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -5963,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Huehuetlán El Chico</t>
@@ -5976,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -5989,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Hueyapan</t>
@@ -6002,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Jolalpan</t>
@@ -6015,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -6028,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -6041,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -6054,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Oriental</t>
@@ -6067,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -6080,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -6093,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -6106,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -6119,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>San Felipe Tepatlán</t>
@@ -6132,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>San Miguel Xoxtla</t>
@@ -6145,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>San Salvador El Seco</t>
@@ -6158,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -6171,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Tepatlaxco De Hidalgo</t>
@@ -6184,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -6197,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -6210,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -6223,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Tulcingo</t>
@@ -6236,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Tuzamapan De Galeana</t>
@@ -6249,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -6262,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -6275,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Yaonáhuac</t>
@@ -6288,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -6301,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Zacapala</t>
@@ -6314,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -6327,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -6340,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -6353,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Zihuateutla</t>
@@ -6366,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6397,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Arroyo Seco</t>
@@ -6410,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -6423,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -6436,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Corregidora</t>
@@ -6449,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Ezequiel Montes</t>
@@ -6462,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Huimilpan</t>
@@ -6475,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -6488,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -6501,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Pedro Escobedo</t>
@@ -6514,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -6527,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -6540,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -6553,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Tequisquiapan</t>
@@ -6566,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6597,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Isla Mujeres</t>
@@ -6610,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Othón P. Blanco</t>
@@ -6623,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6654,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Alaquines</t>
@@ -6667,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Aquismón</t>
@@ -6680,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -6693,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Cerritos</t>
@@ -6706,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Cerro De San Pedro</t>
@@ -6719,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Charcas</t>
@@ -6732,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -6745,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -6758,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -6771,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Coxcatlán</t>
@@ -6784,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Ebano</t>
@@ -6797,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -6810,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Huehuetlán</t>
@@ -6823,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -6836,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -6849,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -6862,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -6875,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -6888,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -6901,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>San Martín Chalchicuautla</t>
@@ -6914,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>San Nicolás Tolentino</t>
@@ -6927,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>San Vicente Tancuayalab</t>
@@ -6940,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Santa Catarina</t>
@@ -6953,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -6966,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -6979,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -6992,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>Tamuín</t>
@@ -7005,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Tanlajás</t>
@@ -7018,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>Tanquián De Escobedo</t>
@@ -7031,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>Tierra Nueva</t>
@@ -7044,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Villa De Arista</t>
@@ -7057,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Villa De Arriaga</t>
@@ -7070,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Villa De Guadalupe</t>
@@ -7083,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -7096,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -7109,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>Villa Juárez</t>
@@ -7122,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -7135,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7166,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -7179,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -7192,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -7205,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -7218,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -7231,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7262,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Etchojoa</t>
@@ -7275,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>Guaymas</t>
@@ -7288,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -7301,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -7314,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7345,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -7358,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>Centla</t>
@@ -7371,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -7384,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -7397,6 +9902,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -7410,6 +9920,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -7423,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>Jonuta</t>
@@ -7436,6 +9956,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -7449,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>Nacajuca</t>
@@ -7462,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Paraíso</t>
@@ -7475,6 +10010,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -7488,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7519,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>Altamira</t>
@@ -7532,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>Bustamante</t>
@@ -7545,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -7558,6 +10118,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>El Mante</t>
@@ -7571,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>González</t>
@@ -7584,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -7597,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -7610,6 +10190,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>Llera</t>
@@ -7623,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -7636,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>Méndez</t>
@@ -7649,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Mier</t>
@@ -7662,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>Miguel Alemán</t>
@@ -7675,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -7688,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -7701,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Padilla</t>
@@ -7714,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -7727,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -7740,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>San Fernando</t>
@@ -7753,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Soto La Marina</t>
@@ -7766,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -7779,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -7792,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -7805,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>Xicoténcatl</t>
@@ -7818,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7849,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -7862,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Teolocholco</t>
@@ -7875,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Tetlatlahuca</t>
@@ -7888,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -7901,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7932,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Acayucan</t>
@@ -7945,6 +10640,11 @@
       </c>
     </row>
     <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -7958,6 +10658,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>Acula</t>
@@ -7971,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -7984,6 +10694,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -7997,6 +10712,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -8010,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Boca Del Río</t>
@@ -8023,6 +10748,11 @@
       </c>
     </row>
     <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
           <t>Carrillo Puerto</t>
@@ -8036,6 +10766,11 @@
       </c>
     </row>
     <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -8049,6 +10784,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Chacaltianguis</t>
@@ -8062,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Chicontepec</t>
@@ -8075,6 +10820,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -8088,6 +10838,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -8101,6 +10856,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -8114,6 +10874,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -8127,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -8140,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -8153,6 +10928,11 @@
       </c>
     </row>
     <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -8166,6 +10946,11 @@
       </c>
     </row>
     <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
           <t>Fortín</t>
@@ -8179,6 +10964,11 @@
       </c>
     </row>
     <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
           <t>Gutiérrez Zamora</t>
@@ -8192,6 +10982,11 @@
       </c>
     </row>
     <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -8205,6 +11000,11 @@
       </c>
     </row>
     <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B592" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -8218,6 +11018,11 @@
       </c>
     </row>
     <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -8231,6 +11036,11 @@
       </c>
     </row>
     <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -8244,6 +11054,11 @@
       </c>
     </row>
     <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -8257,6 +11072,11 @@
       </c>
     </row>
     <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
           <t>Ixhuatlán Del Café</t>
@@ -8270,6 +11090,11 @@
       </c>
     </row>
     <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
           <t>Ixtaczoquitlán</t>
@@ -8283,6 +11108,11 @@
       </c>
     </row>
     <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -8296,6 +11126,11 @@
       </c>
     </row>
     <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -8309,6 +11144,11 @@
       </c>
     </row>
     <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B600" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -8322,6 +11162,11 @@
       </c>
     </row>
     <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B601" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -8335,6 +11180,11 @@
       </c>
     </row>
     <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -8348,6 +11198,11 @@
       </c>
     </row>
     <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B603" t="inlineStr">
         <is>
           <t>Maltrata</t>
@@ -8361,6 +11216,11 @@
       </c>
     </row>
     <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B604" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -8374,6 +11234,11 @@
       </c>
     </row>
     <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B605" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -8387,6 +11252,11 @@
       </c>
     </row>
     <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B606" t="inlineStr">
         <is>
           <t>Medellín De Bravo</t>
@@ -8400,6 +11270,11 @@
       </c>
     </row>
     <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B607" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -8413,6 +11288,11 @@
       </c>
     </row>
     <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B608" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -8426,6 +11306,11 @@
       </c>
     </row>
     <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B609" t="inlineStr">
         <is>
           <t>Moloacán</t>
@@ -8439,6 +11324,11 @@
       </c>
     </row>
     <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B610" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -8452,6 +11342,11 @@
       </c>
     </row>
     <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B611" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -8465,6 +11360,11 @@
       </c>
     </row>
     <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B612" t="inlineStr">
         <is>
           <t>Otatitlán</t>
@@ -8478,6 +11378,11 @@
       </c>
     </row>
     <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B613" t="inlineStr">
         <is>
           <t>Oteapan</t>
@@ -8491,6 +11396,11 @@
       </c>
     </row>
     <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B614" t="inlineStr">
         <is>
           <t>Ozuluama De Mascareñas</t>
@@ -8504,6 +11414,11 @@
       </c>
     </row>
     <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B615" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -8517,6 +11432,11 @@
       </c>
     </row>
     <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B616" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -8530,6 +11450,11 @@
       </c>
     </row>
     <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B617" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -8543,6 +11468,11 @@
       </c>
     </row>
     <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B618" t="inlineStr">
         <is>
           <t>Perote</t>
@@ -8556,6 +11486,11 @@
       </c>
     </row>
     <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B619" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -8569,6 +11504,11 @@
       </c>
     </row>
     <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B620" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -8582,6 +11522,11 @@
       </c>
     </row>
     <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B621" t="inlineStr">
         <is>
           <t>Pueblo Viejo</t>
@@ -8595,6 +11540,11 @@
       </c>
     </row>
     <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B622" t="inlineStr">
         <is>
           <t>Río Blanco</t>
@@ -8608,6 +11558,11 @@
       </c>
     </row>
     <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B623" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -8621,6 +11576,11 @@
       </c>
     </row>
     <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B624" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -8634,6 +11594,11 @@
       </c>
     </row>
     <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B625" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -8647,6 +11612,11 @@
       </c>
     </row>
     <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B626" t="inlineStr">
         <is>
           <t>Soconusco</t>
@@ -8660,6 +11630,11 @@
       </c>
     </row>
     <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B627" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -8673,6 +11648,11 @@
       </c>
     </row>
     <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B628" t="inlineStr">
         <is>
           <t>Tampico Alto</t>
@@ -8686,6 +11666,11 @@
       </c>
     </row>
     <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B629" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -8699,6 +11684,11 @@
       </c>
     </row>
     <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B630" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -8712,6 +11702,11 @@
       </c>
     </row>
     <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B631" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -8725,6 +11720,11 @@
       </c>
     </row>
     <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B632" t="inlineStr">
         <is>
           <t>Tempoal</t>
@@ -8738,6 +11738,11 @@
       </c>
     </row>
     <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B633" t="inlineStr">
         <is>
           <t>Teocelo</t>
@@ -8751,6 +11756,11 @@
       </c>
     </row>
     <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B634" t="inlineStr">
         <is>
           <t>Texistepec</t>
@@ -8764,6 +11774,11 @@
       </c>
     </row>
     <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B635" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -8777,6 +11792,11 @@
       </c>
     </row>
     <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B636" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -8790,6 +11810,11 @@
       </c>
     </row>
     <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B637" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -8803,6 +11828,11 @@
       </c>
     </row>
     <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B638" t="inlineStr">
         <is>
           <t>Tlachichilco</t>
@@ -8816,6 +11846,11 @@
       </c>
     </row>
     <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B639" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -8829,6 +11864,11 @@
       </c>
     </row>
     <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B640" t="inlineStr">
         <is>
           <t>Tlaltetela</t>
@@ -8842,6 +11882,11 @@
       </c>
     </row>
     <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B641" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -8855,6 +11900,11 @@
       </c>
     </row>
     <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B642" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -8868,6 +11918,11 @@
       </c>
     </row>
     <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B643" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -8881,6 +11936,11 @@
       </c>
     </row>
     <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B644" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -8894,6 +11954,11 @@
       </c>
     </row>
     <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B645" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -8907,6 +11972,11 @@
       </c>
     </row>
     <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B646" t="inlineStr">
         <is>
           <t>Zentla</t>
@@ -8920,6 +11990,11 @@
       </c>
     </row>
     <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B647" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -8933,6 +12008,11 @@
       </c>
     </row>
     <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B648" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8964,6 +12044,11 @@
       </c>
     </row>
     <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B650" t="inlineStr">
         <is>
           <t>Tunkás</t>
@@ -8977,6 +12062,11 @@
       </c>
     </row>
     <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B651" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9008,6 +12098,11 @@
       </c>
     </row>
     <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B653" t="inlineStr">
         <is>
           <t>El Salvador</t>
@@ -9021,6 +12116,11 @@
       </c>
     </row>
     <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B654" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -9034,6 +12134,11 @@
       </c>
     </row>
     <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B655" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -9047,6 +12152,11 @@
       </c>
     </row>
     <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B656" t="inlineStr">
         <is>
           <t>General Pánfilo Natera</t>
@@ -9060,6 +12170,11 @@
       </c>
     </row>
     <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B657" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -9073,6 +12188,11 @@
       </c>
     </row>
     <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B658" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -9086,6 +12206,11 @@
       </c>
     </row>
     <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B659" t="inlineStr">
         <is>
           <t>Juan Aldama</t>
@@ -9099,6 +12224,11 @@
       </c>
     </row>
     <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B660" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -9112,6 +12242,11 @@
       </c>
     </row>
     <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B661" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -9125,6 +12260,11 @@
       </c>
     </row>
     <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B662" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -9138,6 +12278,11 @@
       </c>
     </row>
     <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B663" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -9151,6 +12296,11 @@
       </c>
     </row>
     <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B664" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -9164,6 +12314,11 @@
       </c>
     </row>
     <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B665" t="inlineStr">
         <is>
           <t>Tepechitlán</t>
@@ -9177,6 +12332,11 @@
       </c>
     </row>
     <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B666" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -9190,6 +12350,11 @@
       </c>
     </row>
     <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B667" t="inlineStr">
         <is>
           <t>Vetagrande</t>
@@ -9203,6 +12368,11 @@
       </c>
     </row>
     <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B668" t="inlineStr">
         <is>
           <t>Villa González Ortega</t>
@@ -9216,6 +12386,11 @@
       </c>
     </row>
     <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B669" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -9229,6 +12404,11 @@
       </c>
     </row>
     <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B670" t="inlineStr">
         <is>
           <t>Total</t>
